--- a/User Stories.xlsx
+++ b/User Stories.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/6abce18f9dd179c3/Desktop/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{CCB3C846-A5AA-45D0-93E8-0350DFB9B56A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="75" documentId="8_{CCB3C846-A5AA-45D0-93E8-0350DFB9B56A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{14FC11B0-DF68-4834-9E9E-7D32D629184C}"/>
   <bookViews>
-    <workbookView xWindow="5040" yWindow="3675" windowWidth="17280" windowHeight="10665" xr2:uid="{2F26D598-BFDD-40A5-86EF-64EFCBEB7878}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="23280" windowHeight="14880" xr2:uid="{2F26D598-BFDD-40A5-86EF-64EFCBEB7878}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -35,15 +35,141 @@
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="38">
+  <si>
+    <t>ID</t>
+  </si>
+  <si>
+    <t>Story Title</t>
+  </si>
+  <si>
+    <t>Points</t>
+  </si>
+  <si>
+    <t>Priority</t>
+  </si>
+  <si>
+    <t>As a/an [user type]</t>
+  </si>
+  <si>
+    <t>I want [functionality]</t>
+  </si>
+  <si>
+    <t>So that [value]</t>
+  </si>
+  <si>
+    <t>NFR</t>
+  </si>
+  <si>
+    <t>Definition of Done</t>
+  </si>
+  <si>
+    <t>Epic ID</t>
+  </si>
+  <si>
+    <t>Notes</t>
+  </si>
+  <si>
+    <t>Status</t>
+  </si>
+  <si>
+    <t>S01</t>
+  </si>
+  <si>
+    <t>User Friendly Game Interface</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
+  </si>
+  <si>
+    <t>High</t>
+  </si>
+  <si>
+    <t>Player</t>
+  </si>
+  <si>
+    <t>to have a simplistic and easy-to use web app interface for playing five card draw</t>
+  </si>
+  <si>
+    <t>I can enjoy the game without any confusion or complications</t>
+  </si>
+  <si>
+    <t>The game interface is designed with a clean and user-friendly layout, ensuring an easy and enjoyable gaming experience</t>
+  </si>
+  <si>
+    <t>S02</t>
+  </si>
+  <si>
+    <t>Multiplayer Gameplay</t>
+  </si>
+  <si>
+    <t>to be able to play the game with my friends</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> I can have fun and compete with my friends in the game</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Players can create and join multiplayer games with their friends, and invitations are sent and received successfully</t>
+  </si>
+  <si>
+    <t>S03</t>
+  </si>
+  <si>
+    <t>Medium</t>
+  </si>
+  <si>
+    <t>Client</t>
+  </si>
+  <si>
+    <t>Monetization through In-App Ads and Purchases</t>
+  </si>
+  <si>
+    <t>o implement monetization features in the app to generate revenue</t>
+  </si>
+  <si>
+    <t>I can make money through in-app advertisements and purchases of points by players.</t>
+  </si>
+  <si>
+    <t>The app includes strategically placed in-app ads, and players have the option to purchase additional points through in-app purchases</t>
+  </si>
+  <si>
+    <t>S04</t>
+  </si>
+  <si>
+    <t>Friend Request</t>
+  </si>
+  <si>
+    <t>to send friend requests to other users within the app</t>
+  </si>
+  <si>
+    <t>I can connect and play with more people who share my interests</t>
+  </si>
+  <si>
+    <t>Players can send and receive friend requests, and accepted friends are added to the player's friends list.</t>
+  </si>
+  <si>
+    <t>--</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -54,7 +180,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -62,12 +188,37 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color rgb="FFCCCCCC"/>
+      </left>
+      <right style="medium">
+        <color rgb="FFCCCCCC"/>
+      </right>
+      <top style="medium">
+        <color rgb="FFCCCCCC"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FFCCCCCC"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="fill"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -382,12 +533,528 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E411D0D2-86CA-482B-9E4A-5D81BB5385B4}">
-  <dimension ref="A1"/>
+  <dimension ref="A1:L30"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A2" zoomScale="50" workbookViewId="0">
+      <selection activeCell="H8" sqref="H8"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="10" customWidth="1"/>
+    <col min="2" max="2" width="42.5703125" style="2" customWidth="1"/>
+    <col min="3" max="5" width="9.140625" style="2"/>
+    <col min="6" max="6" width="76.85546875" style="2" customWidth="1"/>
+    <col min="7" max="7" width="71.140625" style="2" customWidth="1"/>
+    <col min="8" max="8" width="9.140625" style="2"/>
+    <col min="9" max="9" width="112.140625" style="2" customWidth="1"/>
+    <col min="10" max="12" width="9.140625" style="2"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B1" s="2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="3" spans="1:12" ht="39.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H3" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I3" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J3" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K3" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L3" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A4" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="C4" s="3">
+        <v>5</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="E4" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="F4" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="G4" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="H4" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="I4" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="J4" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="K4" s="3"/>
+      <c r="L4" s="3"/>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A5" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="C5" s="3">
+        <v>8</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="E5" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="F5" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="G5" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="H5" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="I5" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="J5" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="K5" s="3"/>
+      <c r="L5" s="3"/>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A6" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="C6" s="3">
+        <v>10</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="E6" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="F6" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="G6" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="H6" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="I6" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="J6" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="K6" s="3"/>
+      <c r="L6" s="3"/>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A7" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="C7" s="4">
+        <v>5</v>
+      </c>
+      <c r="D7" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="E7" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="F7" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="G7" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="H7" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="I7" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="J7" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="K7" s="3"/>
+      <c r="L7" s="3"/>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A8" s="3"/>
+      <c r="B8" s="3"/>
+      <c r="C8" s="3"/>
+      <c r="D8" s="3"/>
+      <c r="E8" s="3"/>
+      <c r="F8" s="3"/>
+      <c r="G8" s="3"/>
+      <c r="H8" s="3"/>
+      <c r="I8" s="3"/>
+      <c r="J8" s="3"/>
+      <c r="K8" s="3"/>
+      <c r="L8" s="3"/>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A9" s="3"/>
+      <c r="B9" s="3"/>
+      <c r="C9" s="3"/>
+      <c r="D9" s="3"/>
+      <c r="E9" s="3"/>
+      <c r="F9" s="3"/>
+      <c r="G9" s="3"/>
+      <c r="H9" s="3"/>
+      <c r="I9" s="3"/>
+      <c r="J9" s="3"/>
+      <c r="K9" s="3"/>
+      <c r="L9" s="3"/>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A10" s="3"/>
+      <c r="B10" s="3"/>
+      <c r="C10" s="3"/>
+      <c r="D10" s="3"/>
+      <c r="E10" s="3"/>
+      <c r="F10" s="3"/>
+      <c r="G10" s="3"/>
+      <c r="H10" s="3"/>
+      <c r="I10" s="3"/>
+      <c r="J10" s="3"/>
+      <c r="K10" s="3"/>
+      <c r="L10" s="3"/>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A11" s="3"/>
+      <c r="B11" s="3"/>
+      <c r="C11" s="3"/>
+      <c r="D11" s="3"/>
+      <c r="E11" s="3"/>
+      <c r="F11" s="3"/>
+      <c r="G11" s="3"/>
+      <c r="H11" s="3"/>
+      <c r="I11" s="3"/>
+      <c r="J11" s="3"/>
+      <c r="K11" s="3"/>
+      <c r="L11" s="3"/>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A12" s="3"/>
+      <c r="B12" s="3"/>
+      <c r="C12" s="3"/>
+      <c r="D12" s="3"/>
+      <c r="E12" s="3"/>
+      <c r="F12" s="3"/>
+      <c r="G12" s="3"/>
+      <c r="H12" s="3"/>
+      <c r="I12" s="3"/>
+      <c r="J12" s="3"/>
+      <c r="K12" s="3"/>
+      <c r="L12" s="3"/>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A13" s="3"/>
+      <c r="B13" s="3"/>
+      <c r="C13" s="3"/>
+      <c r="D13" s="3"/>
+      <c r="E13" s="3"/>
+      <c r="F13" s="3"/>
+      <c r="G13" s="3"/>
+      <c r="H13" s="3"/>
+      <c r="I13" s="3"/>
+      <c r="J13" s="3"/>
+      <c r="K13" s="3"/>
+      <c r="L13" s="3"/>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A14" s="3"/>
+      <c r="B14" s="3"/>
+      <c r="C14" s="3"/>
+      <c r="D14" s="3"/>
+      <c r="E14" s="3"/>
+      <c r="F14" s="3"/>
+      <c r="G14" s="3"/>
+      <c r="H14" s="3"/>
+      <c r="I14" s="3"/>
+      <c r="J14" s="3"/>
+      <c r="K14" s="3"/>
+      <c r="L14" s="3"/>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A15" s="3"/>
+      <c r="B15" s="3"/>
+      <c r="C15" s="3"/>
+      <c r="D15" s="3"/>
+      <c r="E15" s="3"/>
+      <c r="F15" s="3"/>
+      <c r="G15" s="3"/>
+      <c r="H15" s="3"/>
+      <c r="I15" s="3"/>
+      <c r="J15" s="3"/>
+      <c r="K15" s="3"/>
+      <c r="L15" s="3"/>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A16" s="3"/>
+      <c r="B16" s="3"/>
+      <c r="C16" s="3"/>
+      <c r="D16" s="3"/>
+      <c r="E16" s="3"/>
+      <c r="F16" s="3"/>
+      <c r="G16" s="3"/>
+      <c r="H16" s="3"/>
+      <c r="I16" s="3"/>
+      <c r="J16" s="3"/>
+      <c r="K16" s="3"/>
+      <c r="L16" s="3"/>
+    </row>
+    <row r="17" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A17" s="3"/>
+      <c r="B17" s="3"/>
+      <c r="C17" s="3"/>
+      <c r="D17" s="3"/>
+      <c r="E17" s="3"/>
+      <c r="F17" s="3"/>
+      <c r="G17" s="3"/>
+      <c r="H17" s="3"/>
+      <c r="I17" s="3"/>
+      <c r="J17" s="3"/>
+      <c r="K17" s="3"/>
+      <c r="L17" s="3"/>
+    </row>
+    <row r="18" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A18" s="3"/>
+      <c r="B18" s="3"/>
+      <c r="C18" s="3"/>
+      <c r="D18" s="3"/>
+      <c r="E18" s="3"/>
+      <c r="F18" s="3"/>
+      <c r="G18" s="3"/>
+      <c r="H18" s="3"/>
+      <c r="I18" s="3"/>
+      <c r="J18" s="3"/>
+      <c r="K18" s="3"/>
+      <c r="L18" s="3"/>
+    </row>
+    <row r="19" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A19" s="3"/>
+      <c r="B19" s="3"/>
+      <c r="C19" s="3"/>
+      <c r="D19" s="3"/>
+      <c r="E19" s="3"/>
+      <c r="F19" s="3"/>
+      <c r="G19" s="3"/>
+      <c r="H19" s="3"/>
+      <c r="I19" s="3"/>
+      <c r="J19" s="3"/>
+      <c r="K19" s="3"/>
+      <c r="L19" s="3"/>
+    </row>
+    <row r="20" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A20" s="3"/>
+      <c r="B20" s="3"/>
+      <c r="C20" s="3"/>
+      <c r="D20" s="3"/>
+      <c r="E20" s="3"/>
+      <c r="F20" s="3"/>
+      <c r="G20" s="3"/>
+      <c r="H20" s="3"/>
+      <c r="I20" s="3"/>
+      <c r="J20" s="3"/>
+      <c r="K20" s="3"/>
+      <c r="L20" s="3"/>
+    </row>
+    <row r="21" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A21" s="3"/>
+      <c r="B21" s="3"/>
+      <c r="C21" s="3"/>
+      <c r="D21" s="3"/>
+      <c r="E21" s="3"/>
+      <c r="F21" s="3"/>
+      <c r="G21" s="3"/>
+      <c r="H21" s="3"/>
+      <c r="I21" s="3"/>
+      <c r="J21" s="3"/>
+      <c r="K21" s="3"/>
+      <c r="L21" s="3"/>
+    </row>
+    <row r="22" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A22" s="3"/>
+      <c r="B22" s="3"/>
+      <c r="C22" s="3"/>
+      <c r="D22" s="3"/>
+      <c r="E22" s="3"/>
+      <c r="F22" s="3"/>
+      <c r="G22" s="3"/>
+      <c r="H22" s="3"/>
+      <c r="I22" s="3"/>
+      <c r="J22" s="3"/>
+      <c r="K22" s="3"/>
+      <c r="L22" s="3"/>
+    </row>
+    <row r="23" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A23" s="3"/>
+      <c r="B23" s="3"/>
+      <c r="C23" s="3"/>
+      <c r="D23" s="3"/>
+      <c r="E23" s="3"/>
+      <c r="F23" s="3"/>
+      <c r="G23" s="3"/>
+      <c r="H23" s="3"/>
+      <c r="I23" s="3"/>
+      <c r="J23" s="3"/>
+      <c r="K23" s="3"/>
+      <c r="L23" s="3"/>
+    </row>
+    <row r="24" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A24" s="3"/>
+      <c r="B24" s="3"/>
+      <c r="C24" s="3"/>
+      <c r="D24" s="3"/>
+      <c r="E24" s="3"/>
+      <c r="F24" s="3"/>
+      <c r="G24" s="3"/>
+      <c r="H24" s="3"/>
+      <c r="I24" s="3"/>
+      <c r="J24" s="3"/>
+      <c r="K24" s="3"/>
+      <c r="L24" s="3"/>
+    </row>
+    <row r="25" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A25" s="3"/>
+      <c r="B25" s="3"/>
+      <c r="C25" s="3"/>
+      <c r="D25" s="3"/>
+      <c r="E25" s="3"/>
+      <c r="F25" s="3"/>
+      <c r="G25" s="3"/>
+      <c r="H25" s="3"/>
+      <c r="I25" s="3"/>
+      <c r="J25" s="3"/>
+      <c r="K25" s="3"/>
+      <c r="L25" s="3"/>
+    </row>
+    <row r="26" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A26" s="3"/>
+      <c r="B26" s="3"/>
+      <c r="C26" s="3"/>
+      <c r="D26" s="3"/>
+      <c r="E26" s="3"/>
+      <c r="F26" s="3"/>
+      <c r="G26" s="3"/>
+      <c r="H26" s="3"/>
+      <c r="I26" s="3"/>
+      <c r="J26" s="3"/>
+      <c r="K26" s="3"/>
+      <c r="L26" s="3"/>
+    </row>
+    <row r="27" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A27" s="3"/>
+      <c r="B27" s="3"/>
+      <c r="C27" s="3"/>
+      <c r="D27" s="3"/>
+      <c r="E27" s="3"/>
+      <c r="F27" s="3"/>
+      <c r="G27" s="3"/>
+      <c r="H27" s="3"/>
+      <c r="I27" s="3"/>
+      <c r="J27" s="3"/>
+      <c r="K27" s="3"/>
+      <c r="L27" s="3"/>
+    </row>
+    <row r="28" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A28" s="3"/>
+      <c r="B28" s="3"/>
+      <c r="C28" s="3"/>
+      <c r="D28" s="3"/>
+      <c r="E28" s="3"/>
+      <c r="F28" s="3"/>
+      <c r="G28" s="3"/>
+      <c r="H28" s="3"/>
+      <c r="I28" s="3"/>
+      <c r="J28" s="3"/>
+      <c r="K28" s="3"/>
+      <c r="L28" s="3"/>
+    </row>
+    <row r="29" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A29" s="3"/>
+      <c r="B29" s="3"/>
+      <c r="C29" s="3"/>
+      <c r="D29" s="3"/>
+      <c r="E29" s="3"/>
+      <c r="F29" s="3"/>
+      <c r="G29" s="3"/>
+      <c r="H29" s="3"/>
+      <c r="I29" s="3"/>
+      <c r="J29" s="3"/>
+      <c r="K29" s="3"/>
+      <c r="L29" s="3"/>
+    </row>
+    <row r="30" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A30" s="3"/>
+      <c r="B30" s="3"/>
+      <c r="C30" s="3"/>
+      <c r="D30" s="3"/>
+      <c r="E30" s="3"/>
+      <c r="F30" s="3"/>
+      <c r="G30" s="3"/>
+      <c r="H30" s="3"/>
+      <c r="I30" s="3"/>
+      <c r="J30" s="3"/>
+      <c r="K30" s="3"/>
+      <c r="L30" s="3"/>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
 </file>